--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="9615" windowHeight="10020"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23340" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>도서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>범어사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문현기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼광사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -136,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -433,15 +445,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -596,6 +609,20 @@
       </c>
       <c r="D11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>도서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>삼광사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -623,6 +627,20 @@
       </c>
       <c r="D12" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>도서번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
   </si>
   <si>
     <t>삼광사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -627,20 +623,6 @@
       </c>
       <c r="D12" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23340" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="13980" windowHeight="4752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -101,11 +102,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +156,41 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,6 +304,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -485,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -499,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -513,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -527,7 +563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -541,7 +577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -555,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -569,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -583,7 +619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -597,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -611,7 +647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -625,6 +661,10 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -633,12 +673,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -646,12 +686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2652" windowWidth="13980" windowHeight="4752"/>
+    <workbookView xWindow="0" yWindow="2652" windowWidth="13956" windowHeight="4752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -16,17 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -393,34 +385,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23760" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -383,6 +392,20 @@
       </c>
       <c r="D1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23760" windowHeight="6240"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23760" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,7 +27,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>회원번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,17 +393,17 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -399,13 +411,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -12,34 +12,53 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기증난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출판사</t>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -400,10 +419,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -411,13 +430,97 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>저자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -521,6 +529,34 @@
       </c>
       <c r="D8" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="23760" windowHeight="6240"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23760" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,22 +12,61 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기증난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,26 +411,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -399,13 +438,125 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/BMS/XlsxRead.xlsx
+++ b/BMS/XlsxRead.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>저자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfafd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -557,6 +569,20 @@
       </c>
       <c r="D10" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
